--- a/03.crawler/41.MesseFrankfurt/file/3.product.xlsx
+++ b/03.crawler/41.MesseFrankfurt/file/3.product.xlsx
@@ -9,9 +9,6 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$30</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -30,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="28">
   <si>
     <t>Url</t>
   </si>
@@ -53,427 +50,67 @@
     <t>[Product] Json_Src</t>
   </si>
   <si>
+    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/2e4fe27a-b72f-430e-90cc-20ee806ec900.html</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/2e4fe27a-b72f-430e-90cc-20ee806ec900/mf_2_a3pk1a04eskp_4237825_10000100202401.html</t>
+  </si>
+  <si>
+    <t>{"0": "https://exhibitorsearch.hk.messefrankfurt.com/images/large/product_pictures/10000100202401/A3PK1A04ESKP/1701160538978_110299494.jpeg"}</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/2e4fe27a-b72f-430e-90cc-20ee806ec900/mf_2_a3pk1a04eskp_4237826_10000100202401.html</t>
+  </si>
+  <si>
+    <t>{"0": "https://exhibitorsearch.hk.messefrankfurt.com/images/large/product_pictures/10000100202401/A3PK1A04ESKP/1701160554309_3452951235.jpeg"}</t>
+  </si>
+  <si>
+    <t>多功能雨刷</t>
+  </si>
+  <si>
+    <t>适用百分之九十的车型</t>
+  </si>
+  <si>
+    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/2e4fe27a-b72f-430e-90cc-20ee806ec900/mf_2_a3pk1a04eskp_4237827_10000100202401.html</t>
+  </si>
+  <si>
+    <t>{"0": "https://exhibitorsearch.hk.messefrankfurt.com/images/large/product_pictures/10000100202401/A3PK1A04ESKP/1701160590411_1264298093.jpeg"}</t>
+  </si>
+  <si>
+    <t>汽车零部件</t>
+  </si>
+  <si>
+    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/2e4fe27a-b72f-430e-90cc-20ee806ec900/mf_2_a3pk1a04eskp_4237828_10000100202401.html</t>
+  </si>
+  <si>
+    <t>{"0": "https://exhibitorsearch.hk.messefrankfurt.com/images/large/product_pictures/10000100202401/A3PK1A04ESKP/1702279553897_3119679161.jpg"}</t>
+  </si>
+  <si>
+    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/2e4fe27a-b72f-430e-90cc-20ee806ec900/mf_2_a3pk1a04eskp_4237829_10000100202401.html</t>
+  </si>
+  <si>
+    <t>{"0": "https://exhibitorsearch.hk.messefrankfurt.com/images/large/product_pictures/10000100202401/A3PK1A04ESKP/1702279593834_3540350644.jpg"}</t>
+  </si>
+  <si>
     <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/31-incorporated.html</t>
   </si>
   <si>
-    <t/>
+    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/312000-heshan-zhengda-automobile-glass-tools-coltd.html</t>
   </si>
   <si>
     <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/4a-truck-parts-oy.html</t>
   </si>
   <si>
-    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/aa-top-trading-co-ltd.html</t>
-  </si>
-  <si>
-    <t>顶胶</t>
-  </si>
-  <si>
-    <t>人本轴承 
-原厂工艺和配方 
-优良的表面处理
-48609-06310
-48609-06310
-48609-02150
-48609-02180
-48609-0E030</t>
-  </si>
-  <si>
-    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/aa-top-trading-co-ltd/mf_2_a4wc0a03jcfa_3926503_10000100202401.html</t>
-  </si>
-  <si>
-    <t>{"0": "https://exhibitorsearch.hk.messefrankfurt.com/images/large/userdata/bata/237925/6135c8e08a1a9.jpg"}</t>
-  </si>
-  <si>
-    <t>汽车皮带，同步带</t>
-  </si>
-  <si>
-    <t>汽车同步带 
-汽车多楔带/PK带 
-汽车v带 
-OE和售后质量 
-产品型号涵盖所有国内外车型 
-IATF16949/SGS 质量体系 
-工厂专业生产皮带27年 
-111MY17 
-5PK1250 
-10X875 
-13X1000 
-17X1250 
-114MR17 
-134RU25.7 
-107YU22 
-117RU25 
-6PK1665 
-5PK1250 
-7PK1550</t>
-  </si>
-  <si>
-    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/aa-top-trading-co-ltd/mf_2_a4wc0a03jcfa_3926505_10000100202401.html</t>
-  </si>
-  <si>
-    <t>{"0": "https://exhibitorsearch.hk.messefrankfurt.com/images/large/userdata/bata/237925/6125efa442939.jpg"}</t>
-  </si>
-  <si>
-    <t>汽车多楔带/PK带</t>
-  </si>
-  <si>
-    <t>EPDM 原厂品质 
-10万公里质保 
-涵盖所有车型 
-一模起订 
-交期快 
-IATF16949 &amp; SGS 质量体系 
-3PK750 
-4PK850 
-5PK1250 
-6PK1665 
-7PK1750 
-8PK1500 
-9PK2835</t>
-  </si>
-  <si>
-    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/aa-top-trading-co-ltd/mf_2_a4wc0a03jcfa_3926506_10000100202401.html</t>
-  </si>
-  <si>
-    <t>{"0": "https://exhibitorsearch.hk.messefrankfurt.com/images/large/userdata/bata/237925/6125f1429c938.jpg"}</t>
-  </si>
-  <si>
-    <t>发动机机脚胶/液压悬置</t>
-  </si>
-  <si>
-    <t>原厂工艺和内部液压流道结构 
-全自动真空带检测灌油机 
-日本OTC自动话焊接工作台 
-丰田车系 
-本田车系 
-尼桑日产车系 
-12372-28200 
-12372-0H120 
-12362-0H020 
-12309-0H070 
-12361-0D120 
-12305-22240 
-12371-22140 
-12372-21070</t>
-  </si>
-  <si>
-    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/aa-top-trading-co-ltd/mf_2_a4wc0a03jcfa_3926504_10000100202401.html</t>
-  </si>
-  <si>
-    <t>{"0": "https://exhibitorsearch.hk.messefrankfurt.com/images/large/userdata/bata/237925/638d4e650c727.png"}</t>
-  </si>
-  <si>
-    <t>控制臂、拉杆，悬挂衬套</t>
-  </si>
-  <si>
-    <t>日本OTC自动化焊接工作台 
-加强焊接强度并确保优良的焊接表面 
-铜焊效果 
-所有衬套需做压脱力测试 
-盐雾试验 
-和原厂工艺一样缩径处理
-48068-06140
-48068-02230
-48069-42050
-48655-33050 48655-02080 48655-0D051</t>
-  </si>
-  <si>
-    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/aa-top-trading-co-ltd/mf_2_a4wc0a03jcfa_3926507_10000100202401.html</t>
-  </si>
-  <si>
-    <t>{"0": "https://exhibitorsearch.hk.messefrankfurt.com/images/large/userdata/bata/237925/638d4f8dd009e.png"}</t>
-  </si>
-  <si>
-    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/abbt-the-netherlands-bv-trading-as-arnott-europe.html</t>
-  </si>
-  <si>
-    <t>后空气弹簧，适用于宝马X5 (E70/F15) 以及宝马X6 (E71/F16)。</t>
-  </si>
-  <si>
-    <t>A-2642为Arnott空气弹簧，适用于宝马X5 (E70/F15) 以及宝马X6 (E71/F16) 后轴。Arnott空气弹簧由美国本土的研发中心自主设计，后经实验室和车辆道路全面测试，以确保产品符合各项指标和质量标准。Arnott空气弹簧采用最先进的多层气包，由Continental® ContiTech德国大陆集团马牌等行业领先的橡胶产品公司制造。Arnott空气弹簧应用ISO认证的质量管理体系，在Arnott美国和欧盟工厂进行组装、测试和包装。Arnott空气弹簧的使用寿命更长，安装更便捷，让广大车主享有无与伦比的驾乘舒适性和产品耐用性。特点：Continental ContiTech德国大陆集团马牌多层气包重负荷压接环高抗冲树脂顶胶和底部活塞全新的气管接头</t>
-  </si>
-  <si>
-    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/abbt-the-netherlands-bv-trading-as-arnott-europe/mf_2_a3pk1a04km8a_4151725_10000100202401.html</t>
-  </si>
-  <si>
-    <t>{"0": "https://exhibitorsearch.hk.messefrankfurt.com/images/large/product_pictures/10000100202401/369272/1728371222014_2114191429.jpg"}</t>
-  </si>
-  <si>
-    <t>右前空气支柱总成，适用于宝马7系 (G11/G12) 以及宝马6系 (G32) 带四轮驱动AWD及4角空气悬架系统</t>
-  </si>
-  <si>
-    <t>AS-3404为Arnott自主设计的全新后前空气支柱总成，适用于宝马7系 (G11/G12) 带四轮驱动AWD。该支柱总成可替换OE原厂产品，并配有全新的定制减震器，可带来卓越的驾乘体验和出色的操控性能。美国原装产品，配有Arnott的长效密封件、O型圈、防撞块、重型压接环、全新的空气接头和连接器阀以及防尘套，全面保护支柱。特点：仅适用于AWD全轮驱动的宝马7系 (G11/G12)定制阀门的 减震器重型压接环美国设计和组装</t>
-  </si>
-  <si>
-    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/abbt-the-netherlands-bv-trading-as-arnott-europe/mf_2_a3pk1a04km8a_4151726_10000100202401.html</t>
-  </si>
-  <si>
-    <t>{"0": "https://exhibitorsearch.hk.messefrankfurt.com/images/large/product_pictures/10000100202401/369272/1728371580317_4070710095.jpg"}</t>
-  </si>
-  <si>
-    <t>Arnott右前电控eRide空气支柱总成，适用于保时捷卡宴 (92A) 以及大众途锐 (7P5, 7P6)</t>
-  </si>
-  <si>
-    <t>ASE-4373为Arnott独有的电控eRide支柱总成，可精准实现原厂件的全部功能。Arnott全新的电控支柱总成采用了Arnott的eRide电子行驶控制技术，可根据车辆精确的数字输入进行动态调整以获得最佳操控性能。该电控支柱总成均经过严格测试，以确保正常功能和使用寿命。全新Arnott电控支柱总成均由美国制造。特点：eRide - Arnott电子行驶控制技术自主研发的主动减震技术，采用Arnott设计的阀门保留所有OE原厂性能电子自适应以获得最佳性能可直接替换OE原厂电子减震器和支柱总成经过全面测试，确保正常功能和使用寿命美国设计、测试并组装</t>
-  </si>
-  <si>
-    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/abbt-the-netherlands-bv-trading-as-arnott-europe/mf_2_a3pk1a04km8a_4151727_10000100202401.html</t>
-  </si>
-  <si>
-    <t>{"0": "https://exhibitorsearch.hk.messefrankfurt.com/images/large/product_pictures/10000100202401/369272/1728371960526_2363857927.jpg"}</t>
-  </si>
-  <si>
-    <t>螺旋弹簧转换套件，适用于不带VDS的路虎揽胜 (L322)</t>
-  </si>
-  <si>
-    <t>Arnott的后市场螺旋弹簧转换套件C-2989是专门为不带VDS的路虎揽胜设计的。该套件将车辆的前后空气悬架转换为可靠的螺旋弹簧悬架系统。该套件需重复使用OE原装减震支柱，仅用美国原产的烤漆钢簧替换原车老旧的橡胶气囊。该套件包括全新的支柱顶胶、数控加工的铝制弹簧座、快捷转换所需的全套五金件，以及Arnott独有的电子旁路模块（EBM），该模块可安全关闭仪表板悬架警告灯。特点：烤漆钢簧全新支柱顶胶数控加工底部弹簧座全新上下橡胶弹簧隔振器电子旁通模块，用于关闭警告灯详细的安装手册</t>
-  </si>
-  <si>
-    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/abbt-the-netherlands-bv-trading-as-arnott-europe/mf_2_a3pk1a04km8a_4151728_10000100202401.html</t>
-  </si>
-  <si>
-    <t>{"0": "https://exhibitorsearch.hk.messefrankfurt.com/images/large/product_pictures/10000100202401/369272/1728372046627_2803509978.jpg"}</t>
-  </si>
-  <si>
-    <t>WABCO威伯科OES空气悬架压缩机，适用于特斯拉Model S (5YJS) 及Model X (5YJX)</t>
-  </si>
-  <si>
-    <t>Arnott空气悬架压缩机P-3509适用于特斯拉®Model S及Model X，该产品为特斯拉®原装OE压缩机的直接替换产品。此款原装WABCO®压缩机可直接与车辆的空气管路和电气接头连接。产品包含安装支架、阀组和进气软管，可快速安装、即插即用。特斯拉®的WABCO®后市场压缩机是一款功能强大、设计紧凑且轻量化的产品。特点：包含集成式干燥器及全新继电器重负荷电机可延长使用寿命带热过载保护电镀表面可防腐蚀</t>
-  </si>
-  <si>
-    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/abbt-the-netherlands-bv-trading-as-arnott-europe/mf_2_a3pk1a04km8a_4151729_10000100202401.html</t>
-  </si>
-  <si>
-    <t>{"0": "https://exhibitorsearch.hk.messefrankfurt.com/images/large/product_pictures/10000100202401/369272/1728372128282_1457219863.jpg"}</t>
-  </si>
-  <si>
-    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/able-eye-device-co-ltd.html</t>
-  </si>
-  <si>
-    <t>弯头内窥镜</t>
-  </si>
-  <si>
-    <t>弯曲内窥镜产品介绍
-USB挠性内窥镜设计用于检查、观察孔洞、管道、窄缝等人眼难以看到的地方。
-USB挠性内窥镜的远端设置有微型摄像头和照明用的高亮度LED，摄像头摄取图像经USB接口输入计算机，在显示屏上显示图像。
-摄像头连接一个弯曲部，通过按压手柄后端的快门线按键，推动弯曲部做0° to 180°的弯曲动作。利用快门线的自锁装置，可将摄像头的弯曲角度锁定在任意弯曲位置。
-图像传感器
-高品质CMOS图像传感器 
-图像分辨能力
-640X480
-接口
-USB2.0
-图像帧率
-30 fps (CIF或VGA)
-聚焦距离
-40mm - 400mm
-镜头视场角
-60°
-拍照格式
-JPG
-录像格式
-AVI
-照明方式
-6颗高亮度LED，亮度可调
-20厘米处亮度
-200流明 
-探头直径
-8.5mm
-探管长度
-350mm 到 800mm 依不同型号
-探头弯曲角度
-单向 0° 到 180° 连续可调
-角度锁
-可在0° 到 180° 之间任意角度加锁/解锁
-弯曲部弯曲半径
-30mm
-防水等级
-IP65
-工作温度
-0° to 50°
-储存温度
-0° to 50°
-兼容系统
-Windows XP, 7, 8, 10和MAC 可与高通CPU的安卓系统通过OTG线连接
-iPad/iPhone/安卓手机可通过WiFi方式连接</t>
-  </si>
-  <si>
-    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/able-eye-device-co-ltd/mf_2_a4wc0a01gnwl_3930346_10000100202401.html</t>
-  </si>
-  <si>
-    <t>{"0": "https://exhibitorsearch.hk.messefrankfurt.com/images/large/userdata/bata/143168/5cdbc054b15ca.JPG"}</t>
-  </si>
-  <si>
-    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/able-eye-device-co-ltd/mf_2_a4wc0a01gnwl_3930345_10000100202401.html</t>
-  </si>
-  <si>
-    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/abro-industries-inc.html</t>
-  </si>
-  <si>
-    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/accufill-technology-co-ltd.html</t>
-  </si>
-  <si>
-    <t>H30 Handheld Digital Tire Inflator</t>
-  </si>
-  <si>
-    <t>Die cast aluminum unit with rubber sleeve 
-Units of measure: Bar, psi, kpa, kgf 
-Backlight LCD with 90 seconds auto off 
-Individually calibrated and tested, accuracy according to EEC/86/217 COMPLIANCE 
-Accurate reading of tire pressure, assisting with TPMS 
-Standard device includes AC107 chuck</t>
-  </si>
-  <si>
-    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/accufill-technology-co-ltd/mf_2_a6uj9a004o8s_3930377_10000100202401.html</t>
-  </si>
-  <si>
-    <t>{"0": "https://exhibitorsearch.hk.messefrankfurt.com/images/large/userdata/bata/124942/5f7d2a8758213.jpg"}</t>
-  </si>
-  <si>
-    <t>W60 Automatic Tire Inflator</t>
-  </si>
-  <si>
-    <t>Aluminum die cast housing 
-Vandal resistant mechanical switches for long life 
-Ceramic sensor for highly accurate 
-Easy, clear and accurate suitable for indoor or outdoor 
-Inflates accurately with hoses up to 50m long 
-Comprehensive diagnostics and error reporting 
-Ideal for quick lube centers, rental car facilities and automobile dealerships 
-A standard device include AC102 chuck and 7.6m(25') rubber hose</t>
-  </si>
-  <si>
-    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/accufill-technology-co-ltd/mf_2_a6uj9a004o8s_3930378_10000100202401.html</t>
-  </si>
-  <si>
-    <t>{"0": "https://exhibitorsearch.hk.messefrankfurt.com/images/large/userdata/bata/124942/5ba85e1b93577.jpg"}</t>
-  </si>
-  <si>
-    <t>Handheld Dial Tire Inflator H33</t>
-  </si>
-  <si>
-    <t>· Die cast aluminium unit with rubber sleeve
-· Two position inflflate/deflflate lever
-· Individually calibrated and tested, accuracy according to EEC/86/217 COMPLIANCE
-· Accurate reading of tire pressure, assisting with TPMS
-· Standard device includes AC102 chuck
-· Unit includes a 21"" hose</t>
-  </si>
-  <si>
-    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/accufill-technology-co-ltd/mf_2_a6uj9a004o8s_3930379_10000100202401.html</t>
-  </si>
-  <si>
-    <t>{"0": "https://exhibitorsearch.hk.messefrankfurt.com/images/large/userdata/bata/124942/631aef4bc9654.jpg"}</t>
-  </si>
-  <si>
-    <t>Wall- Mounted Automatic Tire Inflator W91</t>
-  </si>
-  <si>
-    <t>· Vandal resistant mechanical switches for long life
-· Highly accurate sensor
-· Easy, clear and accurate suitable for indoor or outdoor
-· Can inflflate accurately with hoses up to 50m
-· Comprehensive diagnostics and error reporting</t>
-  </si>
-  <si>
-    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/accufill-technology-co-ltd/mf_2_a6uj9a004o8s_3930380_10000100202401.html</t>
-  </si>
-  <si>
-    <t>{"0": "https://exhibitorsearch.hk.messefrankfurt.com/images/large/userdata/bata/124942/631aeed3c2403.png"}</t>
-  </si>
-  <si>
-    <t>Pre-set Handheld Tire Inflator HA200</t>
-  </si>
-  <si>
-    <t>· Auto-offff after 90 seconds
-· AA battery powered design. Long battery life and simplifified battery installation.
-· Ideal for cars, trucks,etc
-· Large easy to read LCD display with audible warning
-· Touch ABS case
-· Individually calibrated and tested
-· Standard device includes AC102 chuck
-· Keep working 10-15 hours</t>
-  </si>
-  <si>
-    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/accufill-technology-co-ltd/mf_2_a6uj9a004o8s_3930381_10000100202401.html</t>
-  </si>
-  <si>
-    <t>{"0": "https://exhibitorsearch.hk.messefrankfurt.com/images/large/userdata/bata/124942/631aefc932a11.png"}</t>
-  </si>
-  <si>
-    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/aceon-bright-inc.html</t>
-  </si>
-  <si>
-    <t>IGNITION COIL</t>
-  </si>
-  <si>
-    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/aceon-bright-inc/mf_2_a4wc0a02a5v3_3923463_10000100202401.html</t>
-  </si>
-  <si>
-    <t>{"0": "https://exhibitorsearch.hk.messefrankfurt.com/images/large/product_pictures/10000100202401/A4WC0A02A5V3/1701852523509_2641272057.jpeg"}</t>
-  </si>
-  <si>
-    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/aceon-bright-inc/mf_2_a4wc0a02a5v3_3923464_10000100202401.html</t>
-  </si>
-  <si>
-    <t>{"0": "https://exhibitorsearch.hk.messefrankfurt.com/images/large/product_pictures/10000100202401/A4WC0A02A5V3/1701852534008_878188608.jpeg"}</t>
-  </si>
-  <si>
-    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/aceon-bright-inc/mf_2_a4wc0a02a5v3_3923465_10000100202401.html</t>
-  </si>
-  <si>
-    <t>{"0": "https://exhibitorsearch.hk.messefrankfurt.com/images/large/product_pictures/10000100202401/A4WC0A02A5V3/1701852542771_1868782254.jpeg"}</t>
-  </si>
-  <si>
-    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/heze-huaxing-fuel-injection-co-ltd.html</t>
-  </si>
-  <si>
-    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/zhejiang-aborn-automotive-sensor-co-ltd.html</t>
-  </si>
-  <si>
-    <t>曲轴与凸轮轴位置传感器</t>
-  </si>
-  <si>
-    <t>曲轴与凸轮轴位置传感器产品优势:1、 高精准和较宽的使用温度范围2、 可靠的设计满足长使用寿命3、 高EMC/ESD保护4、 较宽的气隙范围</t>
-  </si>
-  <si>
-    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/zhejiang-aborn-automotive-sensor-co-ltd/mf_2_a4wc0a02lwkl_3930243_10000100202401.html</t>
-  </si>
-  <si>
-    <t>{"0": "https://exhibitorsearch.hk.messefrankfurt.com/images/large/userdata/bata/157440/6343dad743277.jpg"}</t>
-  </si>
-  <si>
-    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/zhejiang-aborn-automotive-sensor-co-ltd/mf_2_a4wc0a02lwkl_3930244_10000100202401.html</t>
-  </si>
-  <si>
-    <t>{"0": "https://exhibitorsearch.hk.messefrankfurt.com/images/large/userdata/bata/157440/6343da9092233.jpg"}</t>
-  </si>
-  <si>
-    <t>ABS轮速传感器</t>
-  </si>
-  <si>
-    <t>ABS轮速传感器产品优势:1、高精度和较宽的使用温度；2、可靠的设计满足长使用寿命3、较宽的气隙范围4、 高ESD保护5、防水性强</t>
-  </si>
-  <si>
-    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/zhejiang-aborn-automotive-sensor-co-ltd/mf_2_a4wc0a02lwkl_3930245_10000100202401.html</t>
-  </si>
-  <si>
-    <t>{"0": "https://exhibitorsearch.hk.messefrankfurt.com/images/large/userdata/bata/157440/6343db07a24fe.jpg"}</t>
-  </si>
-  <si>
-    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/zhejiang-aborn-automotive-sensor-co-ltd/mf_2_a4wc0a02lwkl_3930246_10000100202401.html</t>
-  </si>
-  <si>
-    <t>{"0": "https://exhibitorsearch.hk.messefrankfurt.com/images/large/userdata/bata/157440/6343db4d93a8c.jpg"}</t>
-  </si>
-  <si>
-    <t>车身高度传感器</t>
-  </si>
-  <si>
-    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/zhejiang-aborn-automotive-sensor-co-ltd/mf_2_a4wc0a02lwkl_3930247_10000100202401.html</t>
-  </si>
-  <si>
-    <t>{"0": "https://exhibitorsearch.hk.messefrankfurt.com/images/large/product_pictures/10000100202401/A4WC0A02LWKL/1700808632027_2250722347.jpg"}</t>
+    <t>https://automechanika-shanghai.hk.messefrankfurt.com/shanghai/zh-cn/exhibitor-search.detail.html/4ebed75a-a6f7-4dbe-9976-82ab6851b067.html</t>
   </si>
 </sst>
 </file>
@@ -1460,10 +1097,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A11" sqref="$A11:$XFD19651"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -1495,674 +1132,210 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
+      <c r="B2">
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" t="s">
-        <v>66</v>
-      </c>
-      <c r="G18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19">
-        <v>3</v>
-      </c>
-      <c r="C19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" t="s">
-        <v>70</v>
-      </c>
-      <c r="G19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20">
-        <v>4</v>
-      </c>
-      <c r="C20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" t="s">
-        <v>74</v>
-      </c>
-      <c r="G20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21">
-        <v>5</v>
-      </c>
-      <c r="C21" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" t="s">
-        <v>78</v>
-      </c>
-      <c r="G21" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" t="s">
-        <v>82</v>
-      </c>
-      <c r="G22" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" t="s">
-        <v>84</v>
-      </c>
-      <c r="G23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24">
-        <v>3</v>
-      </c>
-      <c r="C24" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" t="s">
-        <v>86</v>
-      </c>
-      <c r="G24" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
-        <v>88</v>
-      </c>
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" t="s">
-        <v>89</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
-        <v>90</v>
-      </c>
-      <c r="D26" t="s">
-        <v>91</v>
-      </c>
-      <c r="E26" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" t="s">
-        <v>92</v>
-      </c>
-      <c r="G26" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" t="s">
-        <v>89</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27" t="s">
-        <v>90</v>
-      </c>
-      <c r="D27" t="s">
-        <v>91</v>
-      </c>
-      <c r="E27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" t="s">
-        <v>94</v>
-      </c>
-      <c r="G27" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" t="s">
-        <v>89</v>
-      </c>
-      <c r="B28">
-        <v>3</v>
-      </c>
-      <c r="C28" t="s">
-        <v>96</v>
-      </c>
-      <c r="D28" t="s">
-        <v>97</v>
-      </c>
-      <c r="E28" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" t="s">
-        <v>98</v>
-      </c>
-      <c r="G28" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" t="s">
-        <v>89</v>
-      </c>
-      <c r="B29">
-        <v>4</v>
-      </c>
-      <c r="C29" t="s">
-        <v>96</v>
-      </c>
-      <c r="D29" t="s">
-        <v>97</v>
-      </c>
-      <c r="E29" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" t="s">
-        <v>100</v>
-      </c>
-      <c r="G29" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" t="s">
-        <v>89</v>
-      </c>
-      <c r="B30">
-        <v>5</v>
-      </c>
-      <c r="C30" t="s">
-        <v>102</v>
-      </c>
-      <c r="D30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" t="s">
-        <v>103</v>
-      </c>
-      <c r="G30" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:G18185">
-    <sortCondition ref="A2:A18185"/>
-    <sortCondition ref="B2:B18185"/>
-  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
